--- a/biology/Mycologie/Ramalina/Ramalina.xlsx
+++ b/biology/Mycologie/Ramalina/Ramalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ramalina (du latin ramale « petite branche, brindille », issu du latin ramus « rameau, branche », et du suffixe -ale, neutre de -alis, allusion aux ramifications du thalle)[3] est un genre de champignons lichénisés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramalina (du latin ramale « petite branche, brindille », issu du latin ramus « rameau, branche », et du suffixe -ale, neutre de -alis, allusion aux ramifications du thalle) est un genre de champignons lichénisés.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont un thalle fruticuleux à ramifications en lanières pendantes de couleur gris-vert. Cette caractéristique permet de les distinguer des espèces du genre Evernia qui ont des lanières présentant une face supérieure gris-vert et une face inférieure blanche[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont un thalle fruticuleux à ramifications en lanières pendantes de couleur gris-vert. Cette caractéristique permet de les distinguer des espèces du genre Evernia qui ont des lanières présentant une face supérieure gris-vert et une face inférieure blanche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 novembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 novembre 2018) :
 Ramalina ahtii Kashiw. &amp; T. Nash
 Ramalina alisiosae Pérez-Vargas &amp; Pérez-Ortega
 Ramalina almquistii Vainio
@@ -628,7 +644,7 @@
 Ramalina willeyi R. Howe
 Ramalina wirthii Aptroot &amp; Schumm
 Ramalina zollingeri Szatala
-Selon Catalogue of Life                                   (14 novembre 2018)[5] :
+Selon Catalogue of Life                                   (14 novembre 2018) :
 Ramalina africana (Stein) C. W. Dodge
 Ramalina ahtii Kashiw. &amp; T. H. Nash
 Ramalina alludens Nyl.
@@ -767,7 +783,7 @@
 Ramalina wigginsiae Bowler &amp; Rundel
 Ramalina willeyi R. Howe
 Ramalina wirthii Aptroot &amp; Schumm
-Selon Index Fungorum                                      (14 novembre 2018)[6] :
+Selon Index Fungorum                                      (14 novembre 2018) :
 Ramalina abyssinica Nyl. 1870
 Ramalina africana (Stein) C.W. Dodge 1971
 Ramalina ahtii Kashiw. &amp; T.H. Nash 1994
@@ -1056,7 +1072,7 @@
 Ramalina pluviariae Krog &amp; Østh. 1976
 Ramalina pocsii Krog &amp; Swinscow 1976
 Ramalina pollinaria (Westr.) Ach. 1810
-Selon ITIS      (14 novembre 2018)[7] :
+Selon ITIS      (14 novembre 2018) :
 Ramalina almquistii
 Ramalina americana
 Ramalina bistorta
@@ -1101,7 +1117,7 @@
 Ramalina unifolia J.W. Thomson
 Ramalina usnea
 Ramalina willeyi
-Selon NCBI  (14 novembre 2018)[8] :
+Selon NCBI  (14 novembre 2018) :
 Ramalina almquistii
 Ramalina americana
 Ramalina arabum (Dill. ex Ach.) Meyen &amp; Flot. 1843
